--- a/swag-labs-test-cases.xlsx
+++ b/swag-labs-test-cases.xlsx
@@ -5,59 +5,67 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junni\projects\swag-labs-playwright\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Cart" sheetId="2" r:id="rId2"/>
+    <sheet name="Checkout" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="113">
   <si>
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>Test Scenario</t>
-  </si>
-  <si>
-    <t>Steps</t>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
   </si>
   <si>
     <t>Expected Result</t>
   </si>
   <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>TC001</t>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>TC003</t>
-  </si>
-  <si>
-    <t>TC004</t>
-  </si>
-  <si>
-    <t>TC005</t>
-  </si>
-  <si>
-    <t>TC006</t>
-  </si>
-  <si>
-    <t>TC007</t>
-  </si>
-  <si>
-    <t>TC008</t>
+    <t>TC_LOGIN_001</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_002</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_003</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_004</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_005</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_006</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_007</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_008</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_009</t>
   </si>
   <si>
     <t>Login with valid credentials</t>
@@ -66,73 +74,333 @@
     <t>Login with invalid credentials</t>
   </si>
   <si>
+    <t>Login with empty fields</t>
+  </si>
+  <si>
+    <t>Login with only username</t>
+  </si>
+  <si>
+    <t>Login with only password</t>
+  </si>
+  <si>
+    <t>Login with case-sensitive username</t>
+  </si>
+  <si>
+    <t>Login with spaces before/after username</t>
+  </si>
+  <si>
+    <t>Login with special characters in username</t>
+  </si>
+  <si>
+    <t>Logout from the application</t>
+  </si>
+  <si>
+    <t>User is on login page</t>
+  </si>
+  <si>
+    <t>User is logged in</t>
+  </si>
+  <si>
+    <t>1. Leave username and password fields blank
+2. Click Login button</t>
+  </si>
+  <si>
+    <t>1. Enter username
+2. Leave password blank
+3. Click Login button</t>
+  </si>
+  <si>
+    <t>1. Enter password
+2. Leave username blank
+3. Click Login button</t>
+  </si>
+  <si>
+    <t>1. Enter username with spaces before/after
+2. Enter password
+3. Click 'Login'</t>
+  </si>
+  <si>
+    <t>1. Enter username with special characters
+2. Enter password
+3. Click 'Login'</t>
+  </si>
+  <si>
+    <t>1. Click the 'Menu' button
+2. Click 'Logout'</t>
+  </si>
+  <si>
+    <t>User should be logged in successfully</t>
+  </si>
+  <si>
+    <t>Error message should be displayed</t>
+  </si>
+  <si>
+    <t>Error message should appear</t>
+  </si>
+  <si>
+    <t>Login should fail if case-sensitive</t>
+  </si>
+  <si>
+    <t>Login should trim spaces and succeed</t>
+  </si>
+  <si>
+    <t>Login should fail</t>
+  </si>
+  <si>
+    <t>User should be redirected to login page</t>
+  </si>
+  <si>
+    <t>TC_CART_001</t>
+  </si>
+  <si>
+    <t>TC_CART_002</t>
+  </si>
+  <si>
+    <t>TC_CART_003</t>
+  </si>
+  <si>
+    <t>TC_CART_004</t>
+  </si>
+  <si>
+    <t>TC_CART_005</t>
+  </si>
+  <si>
+    <t>TC_CART_006</t>
+  </si>
+  <si>
+    <t>TC_CART_007</t>
+  </si>
+  <si>
+    <t>TC_CART_008</t>
+  </si>
+  <si>
     <t>Add product to cart</t>
   </si>
   <si>
-    <t>Checkout process</t>
-  </si>
-  <si>
-    <t>Logout functionality</t>
-  </si>
-  <si>
-    <t>Verify product sorting</t>
-  </si>
-  <si>
     <t>Remove product from cart</t>
   </si>
   <si>
     <t>Verify cart badge count</t>
   </si>
   <si>
-    <t>Enter valid username and password, Click login</t>
-  </si>
-  <si>
-    <t>Enter wrong username/password, Click login</t>
-  </si>
-  <si>
-    <t>Navigate to product page, Click 'Add to Cart'</t>
-  </si>
-  <si>
-    <t>Click 'Checkout', Enter details, Click 'Finish'</t>
-  </si>
-  <si>
-    <t>Click logout button</t>
-  </si>
-  <si>
-    <t>Select sorting option from dropdown</t>
-  </si>
-  <si>
-    <t>Click 'Remove' in cart</t>
-  </si>
-  <si>
-    <t>Add multiple items to cart</t>
-  </si>
-  <si>
-    <t>User is logged in</t>
-  </si>
-  <si>
-    <t>Error message displayed</t>
-  </si>
-  <si>
-    <t>Product added to cart</t>
-  </si>
-  <si>
-    <t>Order placed successfully</t>
-  </si>
-  <si>
-    <t>User is logged out</t>
-  </si>
-  <si>
-    <t>Products sorted correctly</t>
-  </si>
-  <si>
-    <t>Product removed successfully</t>
-  </si>
-  <si>
-    <t>Badge count updates correctly</t>
+    <t>Add same product multiple times</t>
+  </si>
+  <si>
+    <t>Empty cart functionality</t>
+  </si>
+  <si>
+    <t>Cart persists after logout</t>
+  </si>
+  <si>
+    <t>Add product using search</t>
+  </si>
+  <si>
+    <t>User has at least one item in cart</t>
+  </si>
+  <si>
+    <t>User has items in cart</t>
+  </si>
+  <si>
+    <t>1. Navigate to product page
+2. Click 'Add to Cart'</t>
+  </si>
+  <si>
+    <t>1. Navigate to cart
+2. Click 'Remove' on an item</t>
+  </si>
+  <si>
+    <t>1. Add multiple items to cart
+2. Check the cart icon</t>
+  </si>
+  <si>
+    <t>1. Add the same product twice
+2. Check cart</t>
+  </si>
+  <si>
+    <t>1. Remove all items
+2. Check cart</t>
+  </si>
+  <si>
+    <t>1. Logout and log back in
+2. Check cart</t>
+  </si>
+  <si>
+    <t>1. Search for product
+2. Add to cart</t>
+  </si>
+  <si>
+    <t>Product should be added to cart</t>
+  </si>
+  <si>
+    <t>Product should be removed from cart</t>
+  </si>
+  <si>
+    <t>The cart badge should display the correct count</t>
+  </si>
+  <si>
+    <t>Cart should update quantity</t>
+  </si>
+  <si>
+    <t>Cart should be empty</t>
+  </si>
+  <si>
+    <t>Cart should remain intact</t>
+  </si>
+  <si>
+    <t>Product should be added</t>
+  </si>
+  <si>
+    <t>TC_CHECKOUT_001</t>
+  </si>
+  <si>
+    <t>TC_CHECKOUT_002</t>
+  </si>
+  <si>
+    <t>TC_CHECKOUT_003</t>
+  </si>
+  <si>
+    <t>TC_CHECKOUT_004</t>
+  </si>
+  <si>
+    <t>TC_CHECKOUT_005</t>
+  </si>
+  <si>
+    <t>TC_CHECKOUT_006</t>
+  </si>
+  <si>
+    <t>Checkout with valid details</t>
+  </si>
+  <si>
+    <t>Checkout with missing details</t>
+  </si>
+  <si>
+    <t>Checkout with invalid ZIP code</t>
+  </si>
+  <si>
+    <t>Checkout with slow internet</t>
+  </si>
+  <si>
+    <t>Verify order confirmation page</t>
+  </si>
+  <si>
+    <t>User is on checkout page</t>
+  </si>
+  <si>
+    <t>User completed checkout</t>
+  </si>
+  <si>
+    <t>1. Click 'Checkout'
+2. Enter valid shipping details
+3. Click 'Continue'
+4. Click 'Finish'</t>
+  </si>
+  <si>
+    <t>1. Click 'Checkout'
+2. Leave required fields empty
+3. Click 'Continue'</t>
+  </si>
+  <si>
+    <t>1. Enter invalid ZIP code
+2. Click 'Continue'</t>
+  </si>
+  <si>
+    <t>1. Simulate slow connection
+2. Complete checkout</t>
+  </si>
+  <si>
+    <t>1. Click 'Finish' on checkout page
+2. Verify confirmation message</t>
+  </si>
+  <si>
+    <t>Order should be placed successfully</t>
+  </si>
+  <si>
+    <t>Checkout should complete without failure</t>
+  </si>
+  <si>
+    <t>'Thank you for your order!' message should be displayed</t>
+  </si>
+  <si>
+    <t>1. Enter valid username:standard_user
+2. Enter valid password:secret_sauce
+3. Click Login button</t>
+  </si>
+  <si>
+    <t>as expected</t>
   </si>
   <si>
     <t>Passed</t>
+  </si>
+  <si>
+    <t>1. Enter invalid username:abcd
+2. Enter invalid password:111111111
+3. Click Login button</t>
+  </si>
+  <si>
+    <t>Error message should appear that Password is required</t>
+  </si>
+  <si>
+    <t>Error message should appear that username is required</t>
+  </si>
+  <si>
+    <t>1. Enter username in different case (e.g., 'STANDART_USER')
+2. Enter password:SECRECT_SAUCE
+3. Click 'Login'</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>didn't trim spaces and didn't succeed</t>
+  </si>
+  <si>
+    <t>User can't add same product multiple times</t>
+  </si>
+  <si>
+    <t>No Button is present for Removing all items</t>
+  </si>
+  <si>
+    <t>Search field is missing</t>
+  </si>
+  <si>
+    <t>Verify product sorting filters (Name A-Z, Name Z-A, Price Low-High, Price High-Low)</t>
+  </si>
+  <si>
+    <t>1. Click on the sorting dropdown
+2. Select "Name (A to Z)"
+3. Verify that products are arranged in ascending order by name
+4. Select "Name (Z to A)"
+5. Verify that products are arranged in descending order by name
+6. Select "Price (Low to High)"
+7. Verify that products are sorted from lowest to highest price
+8. Select "Price (High to Low)"
+9. Verify that products are sorted from highest to lowest price</t>
+  </si>
+  <si>
+    <t>Products should be sorted correctly based on the selected filter</t>
+  </si>
+  <si>
+    <t>User can checkout with invalid ZIP code</t>
+  </si>
+  <si>
+    <t>Verify that each product has an availability indicator showing "In Stock" or "Out of Stock"product</t>
+  </si>
+  <si>
+    <t>User is logged into the Swag Labs application and on the product listing page</t>
+  </si>
+  <si>
+    <t>1. Navigate to the product listing page
+2.  Verify that out-of-stock products are correctly labeled as "Out of Stock"
+3.Verify that in-stock products are correctly labeled as "In Stock"</t>
+  </si>
+  <si>
+    <t>Each product should have a clear availability indicator (In Stock / Out of Stock)</t>
+  </si>
+  <si>
+    <t>Products do not have an indicator for stock availability</t>
+  </si>
+  <si>
+    <t>Test Case</t>
   </si>
 </sst>
 </file>
@@ -148,14 +416,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -168,7 +436,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,7 +445,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00CC5C"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,17 +489,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -229,9 +526,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF00CC5C"/>
-      <color rgb="FF66FF66"/>
-      <color rgb="FF33CC33"/>
+      <color rgb="FF00FF00"/>
+      <color rgb="FFFFFFFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -532,176 +828,670 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" customWidth="1"/>
+    <col min="5" max="5" width="44" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="F9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>37</v>
+      <c r="E10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>